--- a/Documents/정책정의서.xlsx
+++ b/Documents/정책정의서.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\25기_하태민_출판사_정책정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Publisher_Portfolio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AAE1A0-416E-49B0-8DD1-02E4034E8CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2696EC69-B3E5-40C2-9541-C635486FDF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="일반" sheetId="2" r:id="rId1"/>
-    <sheet name="게시판" sheetId="1" r:id="rId2"/>
+    <sheet name="표지" sheetId="3" r:id="rId1"/>
+    <sheet name="문서이력, 기능약어" sheetId="4" r:id="rId2"/>
+    <sheet name="일반" sheetId="2" r:id="rId3"/>
+    <sheet name="게시판" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">게시판!$A$1:$L$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'문서이력, 기능약어'!$A$1:$V$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">일반!$A$1:$H$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$T$34</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +105,6 @@
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷 강의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,6 +217,118 @@
   </si>
   <si>
     <t>로그인한 사용자는 보기만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Updated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하 태민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계 &amp; 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버 전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능약어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약 어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용 어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 명 (출판사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책정의서 작성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표지, 문서이력, 기능약어 추가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하 태민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +360,50 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +416,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -311,10 +475,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -324,10 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -335,62 +524,668 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,6 +1202,343 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>677007</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21577728-47B2-469F-A1F8-9E9D544ABD7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="1200150"/>
+          <a:ext cx="10964007" cy="79131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3952621" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400DB93F-7851-47CB-A263-23846DB7B7DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="628650"/>
+          <a:ext cx="3952621" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Publisher Website Project</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="2800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4096314" cy="718466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0051B28-6EEF-41D4-BFA5-8C2262F4C507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="1381125"/>
+          <a:ext cx="4096314" cy="718466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Taemin’s Portfolio</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,11 +1803,1169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F001FD6C-242E-4ABF-B23F-99121D6A9B9C}">
+  <dimension ref="B1:S33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="20" max="20" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="7"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="38">
+        <v>43967</v>
+      </c>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="7"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C28:F29"/>
+    <mergeCell ref="G28:J29"/>
+    <mergeCell ref="K28:N29"/>
+    <mergeCell ref="O28:R29"/>
+    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="G30:J31"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="O30:R31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A627CCE8-29F0-4ABC-955F-BAA89F0E5597}">
+  <dimension ref="B1:U32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="24" customWidth="1"/>
+    <col min="2" max="7" width="8.75" style="24"/>
+    <col min="8" max="8" width="18.75" style="24" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="24"/>
+    <col min="10" max="12" width="12" style="24" customWidth="1"/>
+    <col min="13" max="14" width="8.75" style="24"/>
+    <col min="15" max="15" width="3.25" style="24" customWidth="1"/>
+    <col min="16" max="16" width="18.75" style="24" customWidth="1"/>
+    <col min="17" max="18" width="11.25" style="24" customWidth="1"/>
+    <col min="19" max="21" width="14" style="24" customWidth="1"/>
+    <col min="22" max="22" width="1.625" style="24" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="74"/>
+    </row>
+    <row r="3" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="75"/>
+    </row>
+    <row r="4" spans="2:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="80">
+        <v>43967</v>
+      </c>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="57"/>
+    </row>
+    <row r="5" spans="2:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="57"/>
+    </row>
+    <row r="6" spans="2:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="57"/>
+    </row>
+    <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="58"/>
+    </row>
+    <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="P9" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="64"/>
+    </row>
+    <row r="10" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="67"/>
+      <c r="P10" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="68"/>
+      <c r="U10" s="69"/>
+    </row>
+    <row r="11" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46">
+        <v>43964</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="47"/>
+      <c r="P11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" s="53"/>
+      <c r="U11" s="54"/>
+    </row>
+    <row r="12" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46">
+        <v>43967</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="47"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="54"/>
+    </row>
+    <row r="13" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="47"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54"/>
+    </row>
+    <row r="14" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="47"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="54"/>
+    </row>
+    <row r="15" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="47"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="54"/>
+    </row>
+    <row r="16" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="47"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="54"/>
+    </row>
+    <row r="17" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="47"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="54"/>
+    </row>
+    <row r="18" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="47"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="54"/>
+    </row>
+    <row r="19" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="47"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
+    </row>
+    <row r="20" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="47"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="54"/>
+    </row>
+    <row r="21" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="47"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="54"/>
+    </row>
+    <row r="22" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="47"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="54"/>
+    </row>
+    <row r="23" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="47"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="54"/>
+    </row>
+    <row r="24" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="47"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="54"/>
+    </row>
+    <row r="25" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="47"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="54"/>
+    </row>
+    <row r="26" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="47"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="54"/>
+    </row>
+    <row r="27" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="47"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="54"/>
+    </row>
+    <row r="28" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="47"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="54"/>
+    </row>
+    <row r="29" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="47"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="54"/>
+    </row>
+    <row r="30" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="47"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="54"/>
+    </row>
+    <row r="31" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="47"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="54"/>
+    </row>
+    <row r="32" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="51"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="152">
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="H2:U3"/>
+    <mergeCell ref="B4:D7"/>
+    <mergeCell ref="E4:G7"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="J4:O5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="R4:U5"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:O7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="R6:U7"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:L20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765ADE0C-69D1-4A6F-AF90-8458C5804B82}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,141 +2975,144 @@
     <col min="3" max="5" width="20.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="50.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="1.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -830,420 +3123,422 @@
     <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="10" width="9.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="54.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="1.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="82">
+        <v>1</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="84"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="44">
+        <v>2</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="84"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="85"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="44">
+        <v>3</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="84"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="85"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="44">
+        <v>4</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="84"/>
+    </row>
+    <row r="14" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="85"/>
+    </row>
+    <row r="15" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="44">
+        <v>5</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="2" t="s">
+      <c r="K15" s="86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="2" t="s">
+      <c r="K16" s="84"/>
+    </row>
+    <row r="17" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="H17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="J17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13">
-        <v>5</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1275,6 +3570,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/정책정의서.xlsx
+++ b/Documents/정책정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Publisher_Portfolio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2696EC69-B3E5-40C2-9541-C635486FDF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1146FB6-75B3-47C5-907C-782048CB45B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="3" r:id="rId1"/>
@@ -971,123 +971,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,12 +1164,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1186,6 +1180,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F001FD6C-242E-4ABF-B23F-99121D6A9B9C}">
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
@@ -2085,18 +2085,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="24" customWidth="1"/>
-    <col min="2" max="7" width="8.75" style="24"/>
-    <col min="8" max="8" width="18.75" style="24" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="24"/>
-    <col min="10" max="12" width="12" style="24" customWidth="1"/>
-    <col min="13" max="14" width="8.75" style="24"/>
-    <col min="15" max="15" width="3.25" style="24" customWidth="1"/>
-    <col min="16" max="16" width="18.75" style="24" customWidth="1"/>
-    <col min="17" max="18" width="11.25" style="24" customWidth="1"/>
-    <col min="19" max="21" width="14" style="24" customWidth="1"/>
-    <col min="22" max="22" width="1.625" style="24" customWidth="1"/>
-    <col min="23" max="16384" width="8.75" style="24"/>
+    <col min="1" max="1" width="1.625" style="20" customWidth="1"/>
+    <col min="2" max="7" width="8.75" style="20"/>
+    <col min="8" max="8" width="18.75" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="20"/>
+    <col min="10" max="12" width="12" style="20" customWidth="1"/>
+    <col min="13" max="14" width="8.75" style="20"/>
+    <col min="15" max="15" width="3.25" style="20" customWidth="1"/>
+    <col min="16" max="16" width="18.75" style="20" customWidth="1"/>
+    <col min="17" max="18" width="11.25" style="20" customWidth="1"/>
+    <col min="19" max="21" width="14" style="20" customWidth="1"/>
+    <col min="22" max="22" width="1.625" style="20" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2302,7 +2302,7 @@
         <v>66</v>
       </c>
       <c r="N10" s="67"/>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="21" t="s">
         <v>67</v>
       </c>
       <c r="Q10" s="68" t="s">
@@ -2316,488 +2316,488 @@
       <c r="U10" s="69"/>
     </row>
     <row r="11" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44">
+      <c r="B11" s="47">
         <v>0.1</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46">
+      <c r="C11" s="48"/>
+      <c r="D11" s="54">
         <v>43964</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="53" t="s">
+      <c r="E11" s="48"/>
+      <c r="F11" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="45" t="s">
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="P11" s="18" t="s">
+      <c r="N11" s="50"/>
+      <c r="P11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53" t="s">
+      <c r="R11" s="49"/>
+      <c r="S11" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="51"/>
     </row>
     <row r="12" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44">
+      <c r="B12" s="47">
         <v>0.2</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46">
+      <c r="C12" s="48"/>
+      <c r="D12" s="54">
         <v>43967</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="53" t="s">
+      <c r="E12" s="54"/>
+      <c r="F12" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="45" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="54"/>
+      <c r="N12" s="50"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="51"/>
     </row>
     <row r="13" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="47"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="50"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="51"/>
     </row>
     <row r="14" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="47"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="50"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="51"/>
     </row>
     <row r="15" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="47"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="54"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="50"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="51"/>
     </row>
     <row r="16" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="47"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="54"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="50"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="51"/>
     </row>
     <row r="17" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="47"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="54"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="50"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="51"/>
     </row>
     <row r="18" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="47"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="54"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="50"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="51"/>
     </row>
     <row r="19" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="47"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="50"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="51"/>
     </row>
     <row r="20" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="47"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="54"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="50"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="51"/>
     </row>
     <row r="21" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="47"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="54"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="50"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="51"/>
     </row>
     <row r="22" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="47"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="54"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="50"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="51"/>
     </row>
     <row r="23" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="47"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="50"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="51"/>
     </row>
     <row r="24" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="47"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="54"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="50"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="51"/>
     </row>
     <row r="25" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="47"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="54"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="50"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="51"/>
     </row>
     <row r="26" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="47"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="54"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="50"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="51"/>
     </row>
     <row r="27" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="47"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="54"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="50"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="51"/>
     </row>
     <row r="28" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="47"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="54"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="50"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="51"/>
     </row>
     <row r="29" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="47"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="54"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="50"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="51"/>
     </row>
     <row r="30" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="47"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="54"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="50"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="51"/>
     </row>
     <row r="31" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="47"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="54"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="50"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="51"/>
     </row>
     <row r="32" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="51"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="53"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="152">
@@ -2840,6 +2840,11 @@
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:L16"/>
@@ -2873,6 +2878,9 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:L20"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="S23:U23"/>
     <mergeCell ref="B22:C22"/>
@@ -2887,6 +2895,10 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="S21:U21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="B25:C25"/>
@@ -2901,6 +2913,10 @@
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="S24:U24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="S29:U29"/>
     <mergeCell ref="B28:C28"/>
@@ -2915,6 +2931,10 @@
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="Q32:R32"/>
     <mergeCell ref="S32:U32"/>
     <mergeCell ref="B31:C31"/>
@@ -2929,30 +2949,10 @@
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="Q30:R30"/>
     <mergeCell ref="S30:U30"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:L32"/>
     <mergeCell ref="M32:N32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2965,7 +2965,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3001,7 +3001,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3016,12 +3016,12 @@
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3036,12 +3036,12 @@
       <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -3056,12 +3056,12 @@
       <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3076,18 +3076,18 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21">
+      <c r="B7" s="18">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -3096,7 +3096,7 @@
       <c r="F7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="25" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3111,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3161,16 +3161,16 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82">
+      <c r="B3" s="87">
         <v>1</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="86" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3188,15 +3188,15 @@
       <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="81" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
@@ -3212,13 +3212,13 @@
       <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="82"/>
     </row>
     <row r="5" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
@@ -3234,19 +3234,19 @@
       <c r="J5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44">
+      <c r="B6" s="47">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -3264,15 +3264,15 @@
       <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3288,13 +3288,13 @@
       <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="84"/>
+      <c r="K7" s="82"/>
     </row>
     <row r="8" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
@@ -3310,19 +3310,19 @@
       <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="85"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44">
+      <c r="B9" s="47">
         <v>3</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="48" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3340,15 +3340,15 @@
       <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
@@ -3364,13 +3364,13 @@
       <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="84"/>
+      <c r="K10" s="82"/>
     </row>
     <row r="11" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
@@ -3386,19 +3386,19 @@
       <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="85"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44">
+      <c r="B12" s="47">
         <v>4</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="48" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -3416,15 +3416,15 @@
       <c r="J12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="84" t="s">
+      <c r="K12" s="82" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
@@ -3440,13 +3440,13 @@
       <c r="J13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="84"/>
+      <c r="K13" s="82"/>
     </row>
     <row r="14" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
@@ -3462,19 +3462,19 @@
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="85"/>
+      <c r="K14" s="83"/>
     </row>
     <row r="15" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44">
+      <c r="B15" s="47">
         <v>5</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="48" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -3492,15 +3492,15 @@
       <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K15" s="84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
@@ -3516,13 +3516,13 @@
       <c r="J16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="84"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="15" t="s">
         <v>15</v>
       </c>
@@ -3538,7 +3538,7 @@
       <c r="J17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="87"/>
+      <c r="K17" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="25">
